--- a/data/outgoing_scrap_records.xlsx
+++ b/data/outgoing_scrap_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,37 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02/09/2025 19:00:27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>นายคิว</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>บริษัทดีมากมายจำกัด</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>สแตนเลส (แท้)</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
